--- a/02_MasterWifoMannheim/99_Backup/Course161.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course161.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B92311599110777187FCD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80A9477D-A19C-48A0-9E7C-2A9F942E748D}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 581 Service Operations Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Services are the largest and fastest growing segment of our economy. However, services pose particular challenges to managers due to their intangible and experiential nature, time-sensitivity/perishability and high levels of customer involvement. organizational issues from an integrated viewpoint with a focus on the customer. Therefore, it is important to understand both how services differ from manufacturing operations and to understand the potential and limitations of how traditional operations management techniques can be applied to services. This course provides managerial concepts and selected analytical tools for effectively and efficiently managing service operations in face of these challenges. In particular, we will look at critical management decisions related to service strategy development, service operations design, process analysis, capacity management, service pricing and revenue management, service quality management, customer relationship management, etc. For understanding and developing the managerial concepts underlying productive service systems, we will rely on fundamental theory, state-of-the-art research insights, and actual case studies of firms that have achieved long-term profitability in practice. a broad range of service industries, such as transport and communication, retailing, sector.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students will 1) get familiarized with the challenging decisions and problems in service (operations) management, and 2) learn concepts, analytical tools and managerial insights to deal with these issues in order to gain competitive advantage through service operations. The course should be useful for anyone with an intention of going into professional services such as consulting; into industry (service or manufacturing), where the importance of man-aging service processes is increasing every day; or with a desire to set up their own service business.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Cornelia Schön</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 581 Service Operations Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Services are the largest and fastest growing segment of our economy. However, services pose particular challenges to managers due to their intangible and experiential nature, time-sensitivity/perishability and high levels of customer involvement. organizational issues from an integrated viewpoint with a focus on the customer. Therefore, it is important to understand both how services differ from manufacturing operations and to understand the potential and limitations of how traditional operations management techniques can be applied to services. This course provides managerial concepts and selected analytical tools for effectively and efficiently managing service operations in face of these challenges. In particular, we will look at critical management decisions related to service strategy development, service operations design, process analysis, capacity management, service pricing and revenue management, service quality management, customer relationship management, etc. For understanding and developing the managerial concepts underlying productive service systems, we will rely on fundamental theory, state-of-the-art research insights, and actual case studies of firms that have achieved long-term profitability in practice. a broad range of service industries, such as transport and communication, retailing, sector.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students will 1) get familiarized with the challenging decisions and problems in service (operations) management, and 2) learn concepts, analytical tools and managerial insights to deal with these issues in order to gain competitive advantage through service operations. The course should be useful for anyone with an intention of going into professional services such as consulting; into industry (service or manufacturing), where the importance of man-aging service processes is increasing every day; or with a desire to set up their own service business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Cornelia Schön</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
